--- a/data/sales_summary.xlsx
+++ b/data/sales_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samarpatel/Desktop/samar/Dunkin/Dunkin-Sales-Summary/data/compiled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samarpatel/Desktop/samar/Dunkin/Dunkin-Sales-Summary/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D49E9-2281-7F45-9B30-F3FBFBAD1CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB0EA0C-3272-1644-86A6-CB06AE92E50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21980" yWindow="7400" windowWidth="26440" windowHeight="15440" xr2:uid="{FD4BEF69-182A-0E42-AB7A-02FD842C3995}"/>
+    <workbookView xWindow="3160" yWindow="7940" windowWidth="26440" windowHeight="15440" xr2:uid="{FD4BEF69-182A-0E42-AB7A-02FD842C3995}"/>
   </bookViews>
   <sheets>
     <sheet name="sales_summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Store</t>
   </si>
@@ -28,21 +28,9 @@
     <t>PC Number</t>
   </si>
   <si>
-    <t>Gross Sales</t>
-  </si>
-  <si>
     <t>Net Sales</t>
   </si>
   <si>
-    <t>DD Adjusted w/0 Markup</t>
-  </si>
-  <si>
-    <t>PA Sales Tax</t>
-  </si>
-  <si>
-    <t>DD Discount</t>
-  </si>
-  <si>
     <t>Guest Count</t>
   </si>
   <si>
@@ -55,29 +43,121 @@
     <t>Void Amount</t>
   </si>
   <si>
-    <t>Refund</t>
-  </si>
-  <si>
-    <t>Void Qty</t>
-  </si>
-  <si>
-    <t>Cash IN</t>
-  </si>
-  <si>
     <t>Enola</t>
   </si>
   <si>
-    <t xml:space="preserve"> $-   </t>
+    <t>Paxton</t>
+  </si>
+  <si>
+    <t>Mount Joy</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Lititz</t>
+  </si>
+  <si>
+    <t>Marietta</t>
+  </si>
+  <si>
+    <t>E-Town</t>
+  </si>
+  <si>
+    <t>Dunkin Gross Sales</t>
+  </si>
+  <si>
+    <t>Baskin Gross Sales</t>
+  </si>
+  <si>
+    <t>DD Net Sales</t>
+  </si>
+  <si>
+    <t>BR Net Sales</t>
+  </si>
+  <si>
+    <t>DD Uber Eats Markup</t>
+  </si>
+  <si>
+    <t>BR Uber Eats Markup</t>
+  </si>
+  <si>
+    <t>DD Grubhub Markup</t>
+  </si>
+  <si>
+    <t>BR Grubhub Markup</t>
+  </si>
+  <si>
+    <t>DD Doordash Markup</t>
+  </si>
+  <si>
+    <t>BR Doordash Markup</t>
+  </si>
+  <si>
+    <t>DD Adjusted Reportable Sales (w/o Delivery Markup)</t>
+  </si>
+  <si>
+    <t>BR Adjusted Reportable Sales (w/o Delivery Markup)</t>
+  </si>
+  <si>
+    <t>Sales Tax</t>
+  </si>
+  <si>
+    <t>Non-Taxable Sales</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>Refunds</t>
+  </si>
+  <si>
+    <t>DD Fee Exempt</t>
+  </si>
+  <si>
+    <t>BR Fee Exempt</t>
+  </si>
+  <si>
+    <t>Cash In</t>
+  </si>
+  <si>
+    <t>Book Cash</t>
+  </si>
+  <si>
+    <t>Void Transactions</t>
+  </si>
+  <si>
+    <t>Bank Deposits</t>
+  </si>
+  <si>
+    <t>Cash Over / Short</t>
+  </si>
+  <si>
+    <t>Paid In</t>
+  </si>
+  <si>
+    <t>Paid Out</t>
+  </si>
+  <si>
+    <t>Gift Card Activation and Reloads</t>
+  </si>
+  <si>
+    <t>Taxable Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="* \$##,###,##0.00;* \-\$##,###,##0.00"/>
+    <numFmt numFmtId="165" formatCode="* #,###,###,##0;* \-#,###,###,##0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,6 +297,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -560,12 +648,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -943,117 +1045,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2135F2-CF01-A14E-8E8F-73C7A482884B}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>301290</v>
+      </c>
+      <c r="C2" s="4">
+        <v>343939</v>
+      </c>
+      <c r="D2" s="4">
+        <v>357993</v>
+      </c>
+      <c r="E2" s="4">
+        <v>358529</v>
+      </c>
+      <c r="F2" s="4">
+        <v>359042</v>
+      </c>
+      <c r="G2" s="4">
+        <v>363271</v>
+      </c>
+      <c r="H2" s="4">
+        <v>364322</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4076.93</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4260.04</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7581.25</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5263.32</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4820.7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4227.8</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5763.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1">
-        <v>357993</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6811.43</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6201.52</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6166.89</v>
-      </c>
-      <c r="F2" s="2">
-        <v>297</v>
-      </c>
-      <c r="G2" s="2">
-        <v>609.91</v>
-      </c>
-      <c r="H2" s="1">
-        <v>630</v>
-      </c>
-      <c r="I2" s="2">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="J2" s="2">
-        <v>45</v>
-      </c>
-      <c r="K2" s="2">
-        <v>8.98</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="B4" s="6">
+        <v>4314.63</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4665.34</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8088.52</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5674.19</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5160.72</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4571.28</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6199.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4076.93</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4260.04</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7581.25</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5263.32</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4820.7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4227.8</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5763.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6">
+        <v>26.056000000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>14.368</v>
+      </c>
+      <c r="D8" s="6">
+        <v>23.922000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>12.128</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9.8819999999999997</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6.2279999999999998</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3.6219999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>14.504</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30.167999999999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>61.758000000000003</v>
+      </c>
+      <c r="E12" s="6">
+        <v>59.683999999999997</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45.783999999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>26.234000000000002</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3969.56</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4215.5039999999999</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7481.0659999999998</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5191.5079999999998</v>
+      </c>
+      <c r="F14" s="6">
+        <v>4765.0339999999997</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4195.3379999999997</v>
+      </c>
+      <c r="H14" s="6">
+        <v>5760.2579999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6">
+        <v>182.7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>204.36</v>
+      </c>
+      <c r="D16" s="6">
+        <v>359.96</v>
+      </c>
+      <c r="E16" s="6">
+        <v>271.95</v>
+      </c>
+      <c r="F16" s="6">
+        <v>227.61</v>
+      </c>
+      <c r="G16" s="6">
+        <v>204</v>
+      </c>
+      <c r="H16" s="6">
+        <v>279.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1060.56</v>
+      </c>
+      <c r="C17" s="6">
+        <v>870.65</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1627.77</v>
+      </c>
+      <c r="E17" s="6">
+        <v>756.07</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1072.06</v>
+      </c>
+      <c r="G17" s="6">
+        <v>851.46</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1143.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4259.63</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4464.3999999999996</v>
+      </c>
+      <c r="D18" s="6">
+        <v>7941.21</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5535.27</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5048.3100000000004</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4431.8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6043.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6">
+        <v>237.7</v>
+      </c>
+      <c r="C19" s="6">
+        <v>325.3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>487.27</v>
+      </c>
+      <c r="E19" s="6">
+        <v>410.87</v>
+      </c>
+      <c r="F19" s="6">
+        <v>340.02</v>
+      </c>
+      <c r="G19" s="6">
+        <v>288.48</v>
+      </c>
+      <c r="H19" s="6">
+        <v>435.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="6">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-16</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-32</v>
+      </c>
+      <c r="F21" s="6">
+        <v>-16</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1028.6400000000001</v>
+      </c>
+      <c r="C23" s="6">
+        <v>679.35</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1054.97</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1056.9100000000001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>726.12</v>
+      </c>
+      <c r="G23" s="6">
+        <v>676.86</v>
+      </c>
+      <c r="H23" s="6">
+        <v>774.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1028.6400000000001</v>
+      </c>
+      <c r="C24" s="6">
+        <v>679.35</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1054.97</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1056.9100000000001</v>
+      </c>
+      <c r="F24" s="6">
+        <v>726.12</v>
+      </c>
+      <c r="G24" s="6">
+        <v>676.86</v>
+      </c>
+      <c r="H24" s="6">
+        <v>774.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
         <v>2</v>
       </c>
-      <c r="N2" s="2">
-        <v>1068.82</v>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6.76</v>
+      </c>
+      <c r="D26" s="6">
+        <v>18.86</v>
+      </c>
+      <c r="E26" s="6">
+        <v>15.15</v>
+      </c>
+      <c r="F26" s="6">
+        <v>23.35</v>
+      </c>
+      <c r="G26" s="6">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="H26" s="6">
+        <v>37.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>80</v>
+      </c>
+      <c r="D27" s="6">
+        <v>20</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>55</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="8">
+        <v>398</v>
+      </c>
+      <c r="C28" s="8">
+        <v>450</v>
+      </c>
+      <c r="D28" s="8">
+        <v>691</v>
+      </c>
+      <c r="E28" s="8">
+        <v>516</v>
+      </c>
+      <c r="F28" s="8">
+        <v>480</v>
+      </c>
+      <c r="G28" s="8">
+        <v>432</v>
+      </c>
+      <c r="H28" s="8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6">
+        <v>10.243542713567839</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9.4667555555555563</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10.971418234442837</v>
+      </c>
+      <c r="E29" s="6">
+        <v>10.200232558139534</v>
+      </c>
+      <c r="F29" s="6">
+        <v>10.043125</v>
+      </c>
+      <c r="G29" s="6">
+        <v>9.7865740740740748</v>
+      </c>
+      <c r="H29" s="6">
+        <v>10.292642857142857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1056.9100000000001</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="6">
+        <v>-1064.58</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-679.35</v>
+      </c>
+      <c r="D31" s="6">
+        <v>-1054.97</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>-726.12</v>
+      </c>
+      <c r="G31" s="6">
+        <v>-676.86</v>
+      </c>
+      <c r="H31" s="6">
+        <v>-774.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-17.97</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6">
+        <v>19.97</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>53.25</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>80</v>
+      </c>
+      <c r="D34" s="6">
+        <v>20</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>55</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3016.37</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3389.39</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5953.48</v>
+      </c>
+      <c r="E35" s="6">
+        <v>4507.25</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3748.64</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3376.34</v>
+      </c>
+      <c r="H35" s="6">
+        <v>4620.8100000000004</v>
       </c>
     </row>
   </sheetData>
